--- a/mosip_master/xlsx/reg_center_type.xlsx
+++ b/mosip_master/xlsx/reg_center_type.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -68,6 +68,33 @@
   </si>
   <si>
     <t xml:space="preserve">مركز التسجيل العادي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನಿಯಮಿತ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನಿಯಮಿತ ನೋಂದಣಿ ಕೇಂದ್ರ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">नियमित</t>
+  </si>
+  <si>
+    <t xml:space="preserve">नियमित पंजीकरण केंद्र</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">வழக்கமான</t>
+  </si>
+  <si>
+    <t xml:space="preserve">வழக்கமான பதிவு மையம்</t>
   </si>
 </sst>
 </file>
@@ -158,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -181,6 +208,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -200,10 +231,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4:D4"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -281,6 +312,57 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/mosip_master/xlsx/reg_center_type.xlsx
+++ b/mosip_master/xlsx/reg_center_type.xlsx
@@ -1,99 +1,449 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip-setup\code-base\mosip-data\mosip_master\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A6A3DC-30DF-4783-B3F8-3CAF80E52658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18350" windowHeight="6920"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="reg_center_type" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
   <si>
     <t>lang_code</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>descr</t>
-  </si>
-  <si>
     <t>is_active</t>
   </si>
   <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Regular Registration Center</t>
+  </si>
+  <si>
     <t>eng</t>
   </si>
   <si>
-    <t>REG</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Regular Registration Center</t>
-  </si>
-  <si>
-    <t>TRUE</t>
+    <t xml:space="preserve">नियमित </t>
+  </si>
+  <si>
+    <t>नियमित पंजीकरण केंद्र</t>
   </si>
   <si>
     <t>hin</t>
   </si>
   <si>
-    <t>नियमित पंजीकरण केंद्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नियमित </t>
+    <t>Centro de registro regular</t>
+  </si>
+  <si>
+    <t>spa</t>
+  </si>
+  <si>
+    <t>Régulière</t>
+  </si>
+  <si>
+    <t>Centre d'inscription régulier</t>
+  </si>
+  <si>
+    <t>fra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <charset val="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -103,54 +453,540 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -166,7 +1002,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -178,7 +1014,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -192,12 +1028,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -225,31 +1061,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -277,23 +1096,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,48 +1237,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="34.08984375" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" style="1"/>
+    <col min="1" max="1" width="5.54545454545455" customWidth="1"/>
+    <col min="2" max="2" width="9.27272727272727" customWidth="1"/>
+    <col min="3" max="3" width="26.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -489,33 +1286,67 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+    <row r="4" ht="43.5" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/reg_center_type.xlsx
+++ b/mosip_master/xlsx/reg_center_type.xlsx
@@ -1,21 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView windowWidth="19200" windowHeight="6350"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="data-1729509163320" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data-1729509163320'!$A$1:$E$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>code</t>
   </si>
@@ -44,27 +59,6 @@
     <t>eng</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>Ordinaire</t>
-  </si>
-  <si>
-    <t>Centre dinscription régulière</t>
-  </si>
-  <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>عادي</t>
-  </si>
-  <si>
-    <t>مركز التسجيل العادي</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
     <t>Centro de registro regular</t>
   </si>
   <si>
@@ -74,51 +68,897 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -128,39 +968,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,181 +1079,152 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -445,8 +1256,8 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -454,64 +1265,20 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>